--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0285F219-88CB-D841-A15E-8ECE5FDD93FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF33F0F1-97F9-234D-A8B1-7391D200663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="5440" windowWidth="28240" windowHeight="14140" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
+    <workbookView xWindow="3700" yWindow="5440" windowWidth="28240" windowHeight="14140" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="4" r:id="rId1"/>
     <sheet name="State" sheetId="3" r:id="rId2"/>
+    <sheet name="Test scenarios" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="82">
   <si>
     <t>-</t>
   </si>
@@ -186,20 +187,110 @@
     <t>Password</t>
   </si>
   <si>
-    <t>OTP</t>
-  </si>
-  <si>
     <t>Redirect to login/register.</t>
   </si>
   <si>
     <t>old and new password</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Entity</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>forgot</t>
+  </si>
+  <si>
+    <t>Blacklisted</t>
+  </si>
+  <si>
+    <t>Expired</t>
+  </si>
+  <si>
+    <t>Blocked</t>
+  </si>
+  <si>
+    <t>NR</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Set password</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>*NC</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{"email": "dummy@sample.com"}</t>
+  </si>
+  <si>
+    <t>{"email": "dummy@sample.com", "password": "Wrong-Password!"}</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Pre-UserStatus</t>
+  </si>
+  <si>
+    <t>Post UserStatus</t>
+  </si>
+  <si>
+    <t>Expected HTTP</t>
+  </si>
+  <si>
+    <t>The user already exists.</t>
+  </si>
+  <si>
+    <t>The user is blocked. Please try again later.</t>
+  </si>
+  <si>
+    <t>The user is blacklisted.</t>
+  </si>
+  <si>
+    <t>{"email": "dummy@sample.com", "password": "Right-Password01!"}</t>
+  </si>
+  <si>
+    <t>{"email": "dummy@sample.com", "password": "Right-Password1!", "new_password": "Right-New_Password1!",  "new_password_repeated": "Right-New_Password1!"}</t>
+  </si>
+  <si>
+    <t>{"email": "dummy@sample.com", "password": "Right-Password1!"}</t>
+  </si>
+  <si>
+    <t>{"email": "dummy@sample.com", "password": "Wrong-Password!", "new_password": "Right-New_Password1!",  "new_password_repeated": "Right-New_Password1!"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,8 +305,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,8 +326,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -237,11 +353,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFBFBFBF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFBFBFBF"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -275,6 +471,84 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0961F787-817B-F542-A967-DF93EA7C36FF}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +960,9 @@
       <c r="C3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="10">
         <v>99</v>
       </c>
@@ -711,7 +987,9 @@
       <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="10">
         <v>80</v>
       </c>
@@ -731,7 +1009,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>6</v>
@@ -739,22 +1017,21 @@
       <c r="C5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10">
-        <v>80</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5">
-        <v>80</v>
+      <c r="D5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H5,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v xml:space="preserve">Expired </v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -770,23 +1047,26 @@
       <c r="D6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>33</v>
+      <c r="E6" s="11" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
+        <v>8</v>
+      </c>
+      <c r="H6" s="10">
+        <v>10</v>
       </c>
       <c r="I6" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H6,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
+        <v>Inactive</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>17</v>
+      <c r="A7" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>6</v>
@@ -794,24 +1074,18 @@
       <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="10">
-        <v>10</v>
+      <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I7" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H7,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Inactive</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -824,18 +1098,24 @@
       <c r="C8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>31</v>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="10">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10">
+        <v>90</v>
       </c>
       <c r="I8" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H8,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
+        <v xml:space="preserve">Blocked </v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -848,29 +1128,29 @@
       <c r="C9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="10">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>25</v>
+      <c r="G9" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="H9" s="10">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H9,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v xml:space="preserve">Blocked </v>
+        <v>Active</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>6</v>
@@ -878,24 +1158,18 @@
       <c r="C10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="10">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="10">
-        <v>20</v>
+      <c r="D10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H10,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Active</v>
-      </c>
-      <c r="J10" t="s">
-        <v>46</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -909,17 +1183,23 @@
         <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="10">
+        <v>20</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="10">
+        <v>90</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H11,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
+        <v xml:space="preserve">Blocked </v>
+      </c>
+      <c r="J11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -932,29 +1212,29 @@
       <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="10">
         <v>20</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>25</v>
+      <c r="G12" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="H12" s="10">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H12,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v xml:space="preserve">Blocked </v>
+        <v>Active</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>6</v>
@@ -963,23 +1243,17 @@
         <v>42</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="10">
-        <v>20</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="10">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H13,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Active</v>
-      </c>
-      <c r="J13" t="s">
-        <v>46</v>
+        <v/>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -995,20 +1269,26 @@
       <c r="D14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>31</v>
+      <c r="E14" s="10">
+        <v>20</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10">
+        <v>10</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H14,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
+        <v>Inactive</v>
+      </c>
+      <c r="J14" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
+      <c r="A15" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>6</v>
@@ -1016,8 +1296,8 @@
       <c r="C15" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>40</v>
+      <c r="D15" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="E15" s="10">
         <v>20</v>
@@ -1026,14 +1306,11 @@
         <v>8</v>
       </c>
       <c r="H15" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H15,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Inactive</v>
-      </c>
-      <c r="J15" t="s">
-        <v>50</v>
+        <v>Active</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1046,21 +1323,16 @@
       <c r="C16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="10">
-        <v>20</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="10">
-        <v>20</v>
+      <c r="D16" s="8"/>
+      <c r="E16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H16,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v>Active</v>
+        <v/>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1073,12 +1345,14 @@
       <c r="C17" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="10" t="s">
-        <v>34</v>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="10">
+        <v>20</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H17,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1087,52 +1361,28 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="10">
-        <v>20</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>21</v>
+      <c r="D18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="10">
+        <v>99</v>
       </c>
       <c r="I18" s="2" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H18,State!$A$3:$B$8,2,FALSE),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="10">
-        <v>99</v>
-      </c>
-      <c r="I19" s="2" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H19,State!$A$3:$B$8,2,FALSE),"")</f>
         <v xml:space="preserve">Blacklisted </v>
       </c>
     </row>
@@ -1212,4 +1462,1151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7162-4CDB-1E49-A9D6-A74F09DB89DA}">
+  <dimension ref="A1:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" style="36" customWidth="1"/>
+    <col min="8" max="8" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>99</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0</v>
+      </c>
+      <c r="I3" s="27">
+        <v>422</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="15" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(J3,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M3" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>99</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+      <c r="I4" s="30">
+        <v>401</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(J4,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="28">
+        <v>3</v>
+      </c>
+      <c r="C5" s="28">
+        <v>99</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+      <c r="I5" s="30">
+        <v>401</v>
+      </c>
+      <c r="J5" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(J5,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M5" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="28">
+        <v>4</v>
+      </c>
+      <c r="C6" s="28">
+        <v>99</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+      <c r="I6" s="30">
+        <v>401</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(J6,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="31">
+        <v>5</v>
+      </c>
+      <c r="C7" s="31">
+        <v>90</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="32">
+        <v>422</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K7,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="31">
+        <v>6</v>
+      </c>
+      <c r="C8" s="31">
+        <v>90</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="32">
+        <v>401</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K8,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="31">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31">
+        <v>90</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="32">
+        <v>401</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L9" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K9,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="31">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31">
+        <v>90</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="32">
+        <v>200</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31">
+        <v>10</v>
+      </c>
+      <c r="L10" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K10,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v>Inactive</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="28">
+        <v>9</v>
+      </c>
+      <c r="C11" s="28">
+        <v>80</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
+      </c>
+      <c r="I11" s="27">
+        <v>422</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K11,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="28">
+        <v>10</v>
+      </c>
+      <c r="C12" s="28">
+        <v>80</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
+      </c>
+      <c r="I12" s="30">
+        <v>401</v>
+      </c>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L12" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K12,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="28">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28">
+        <v>80</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
+      </c>
+      <c r="I13" s="30">
+        <v>401</v>
+      </c>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K13,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="28">
+        <v>12</v>
+      </c>
+      <c r="C14" s="28">
+        <v>80</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
+      </c>
+      <c r="I14" s="30">
+        <v>200</v>
+      </c>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28">
+        <v>10</v>
+      </c>
+      <c r="L14" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K14,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v>Inactive</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="31">
+        <v>13</v>
+      </c>
+      <c r="C15" s="31">
+        <v>10</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="32">
+        <v>0</v>
+      </c>
+      <c r="I15" s="32">
+        <v>422</v>
+      </c>
+      <c r="J15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K15,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="31">
+        <v>14</v>
+      </c>
+      <c r="C16" s="31">
+        <v>20</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="32">
+        <v>0</v>
+      </c>
+      <c r="I16" s="32">
+        <v>422</v>
+      </c>
+      <c r="J16" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K16,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="21">
+        <v>15</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="32">
+        <v>0</v>
+      </c>
+      <c r="I17" s="32">
+        <v>200</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31">
+        <v>10</v>
+      </c>
+      <c r="L17" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K17,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v>Inactive</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="28">
+        <v>16</v>
+      </c>
+      <c r="C18" s="28">
+        <v>20</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="30">
+        <v>0</v>
+      </c>
+      <c r="I18" s="30">
+        <v>422</v>
+      </c>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K18,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="28">
+        <v>17</v>
+      </c>
+      <c r="C19" s="28">
+        <v>10</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="30">
+        <v>0</v>
+      </c>
+      <c r="I19" s="30">
+        <v>422</v>
+      </c>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K19,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M19" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="28">
+        <v>18</v>
+      </c>
+      <c r="C20" s="28">
+        <v>10</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="30">
+        <v>5</v>
+      </c>
+      <c r="I20" s="30">
+        <v>401</v>
+      </c>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28">
+        <v>90</v>
+      </c>
+      <c r="L20" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K20,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v xml:space="preserve">Blocked </v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="28">
+        <v>19</v>
+      </c>
+      <c r="C21" s="28">
+        <v>10</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="30">
+        <v>4</v>
+      </c>
+      <c r="I21" s="30">
+        <v>401</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K21,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="28">
+        <v>20</v>
+      </c>
+      <c r="C22" s="28">
+        <v>10</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="30">
+        <v>0</v>
+      </c>
+      <c r="I22" s="30">
+        <v>200</v>
+      </c>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28">
+        <v>20</v>
+      </c>
+      <c r="L22" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K22,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v>Active</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="31">
+        <v>21</v>
+      </c>
+      <c r="C23" s="31">
+        <v>10</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="32">
+        <v>0</v>
+      </c>
+      <c r="I23" s="32">
+        <v>422</v>
+      </c>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L23" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K23,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="31">
+        <v>22</v>
+      </c>
+      <c r="C24" s="31">
+        <v>20</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="32">
+        <v>5</v>
+      </c>
+      <c r="I24" s="32">
+        <v>401</v>
+      </c>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31">
+        <v>90</v>
+      </c>
+      <c r="L24" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K24,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v xml:space="preserve">Blocked </v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="31">
+        <v>23</v>
+      </c>
+      <c r="C25" s="31">
+        <v>20</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="32">
+        <v>4</v>
+      </c>
+      <c r="I25" s="32">
+        <v>401</v>
+      </c>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K25,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="31">
+        <v>24</v>
+      </c>
+      <c r="C26" s="31">
+        <v>20</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="32">
+        <v>0</v>
+      </c>
+      <c r="I26" s="32">
+        <v>200</v>
+      </c>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K26,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M26" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="28">
+        <v>25</v>
+      </c>
+      <c r="C27" s="28">
+        <v>10</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="30">
+        <v>0</v>
+      </c>
+      <c r="I27" s="30">
+        <v>422</v>
+      </c>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K27,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="M27" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="28">
+        <v>26</v>
+      </c>
+      <c r="C28" s="28">
+        <v>20</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="30">
+        <v>0</v>
+      </c>
+      <c r="I28" s="30">
+        <v>200</v>
+      </c>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28">
+        <v>10</v>
+      </c>
+      <c r="L28" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(K28,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v>Inactive</v>
+      </c>
+      <c r="M28" s="29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF33F0F1-97F9-234D-A8B1-7391D200663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CCC14-3346-E247-9666-8C5F56300094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="5440" windowWidth="28240" windowHeight="14140" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
+    <workbookView xWindow="6320" yWindow="6200" windowWidth="28240" windowHeight="14140" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="91">
   <si>
     <t>-</t>
   </si>
@@ -262,18 +262,6 @@
     <t>Post UserStatus</t>
   </si>
   <si>
-    <t>Expected HTTP</t>
-  </si>
-  <si>
-    <t>The user already exists.</t>
-  </si>
-  <si>
-    <t>The user is blocked. Please try again later.</t>
-  </si>
-  <si>
-    <t>The user is blacklisted.</t>
-  </si>
-  <si>
     <t>{"email": "dummy@sample.com", "password": "Right-Password01!"}</t>
   </si>
   <si>
@@ -284,6 +272,45 @@
   </si>
   <si>
     <t>{"email": "dummy@sample.com", "password": "Wrong-Password!", "new_password": "Right-New_Password1!",  "new_password_repeated": "Right-New_Password1!"}</t>
+  </si>
+  <si>
+    <t>Expected HTTP status</t>
+  </si>
+  <si>
+    <t>Expected response</t>
+  </si>
+  <si>
+    <t>{"detail": "The user already exists."}</t>
+  </si>
+  <si>
+    <t>{"detail": "The user is blacklisted."}</t>
+  </si>
+  <si>
+    <t>{"detail": "The user is blocked. Please try again later."}</t>
+  </si>
+  <si>
+    <t>{"detail": "The password is expired."}</t>
+  </si>
+  <si>
+    <t>{"type": "missing","loc": ["body", "password"],"msg": "Field required"}</t>
+  </si>
+  <si>
+    <t>{"type": "missing","loc": ["body", "new_password"],"msg": "Field required"}</t>
+  </si>
+  <si>
+    <t>{"type": "missing","loc": ["body", "email"],"msg": "Field required"}</t>
+  </si>
+  <si>
+    <t>{"detail": "Incorrect existing password. The user has been blocked. Please try again later."}</t>
+  </si>
+  <si>
+    <t>{"detail": "Incorrect existing password. Please try again."}</t>
+  </si>
+  <si>
+    <t>{"detail": "The password is not valid. The user has been blocked. Please try again later."}</t>
+  </si>
+  <si>
+    <t>{"detail": "The password is not valid. Please try again."}</t>
   </si>
 </sst>
 </file>
@@ -1469,8 +1496,8 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1484,14 +1511,14 @@
     <col min="7" max="7" width="29" style="36" customWidth="1"/>
     <col min="8" max="8" width="7" style="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29" style="36" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="68" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>51</v>
       </c>
@@ -1517,10 +1544,10 @@
         <v>67</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>73</v>
@@ -1540,12 +1567,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="9"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
@@ -1573,8 +1600,8 @@
       <c r="I3" s="27">
         <v>422</v>
       </c>
-      <c r="J3" s="26" t="s">
-        <v>75</v>
+      <c r="J3" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="K3" s="28" t="s">
         <v>66</v>
@@ -1607,7 +1634,7 @@
         <v>64</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H4" s="30">
         <v>0</v>
@@ -1615,8 +1642,8 @@
       <c r="I4" s="30">
         <v>401</v>
       </c>
-      <c r="J4" s="28" t="s">
-        <v>77</v>
+      <c r="J4" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="K4" s="28" t="s">
         <v>66</v>
@@ -1649,7 +1676,7 @@
         <v>64</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H5" s="30">
         <v>0</v>
@@ -1657,8 +1684,8 @@
       <c r="I5" s="30">
         <v>401</v>
       </c>
-      <c r="J5" s="28" t="s">
-        <v>77</v>
+      <c r="J5" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="K5" s="28" t="s">
         <v>66</v>
@@ -1699,8 +1726,8 @@
       <c r="I6" s="30">
         <v>401</v>
       </c>
-      <c r="J6" s="28" t="s">
-        <v>77</v>
+      <c r="J6" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="K6" s="28" t="s">
         <v>66</v>
@@ -1742,7 +1769,7 @@
         <v>422</v>
       </c>
       <c r="J7" s="31" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>66</v>
@@ -1775,7 +1802,7 @@
         <v>64</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H8" s="32">
         <v>0</v>
@@ -1784,7 +1811,7 @@
         <v>401</v>
       </c>
       <c r="J8" s="31" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="K8" s="31" t="s">
         <v>66</v>
@@ -1817,7 +1844,7 @@
         <v>64</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="32">
         <v>0</v>
@@ -1825,8 +1852,8 @@
       <c r="I9" s="32">
         <v>401</v>
       </c>
-      <c r="J9" s="31" t="s">
-        <v>76</v>
+      <c r="J9" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="K9" s="31" t="s">
         <v>66</v>
@@ -1867,7 +1894,9 @@
       <c r="I10" s="32">
         <v>200</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="K10" s="31">
         <v>10</v>
       </c>
@@ -1879,7 +1908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
@@ -1907,8 +1936,8 @@
       <c r="I11" s="27">
         <v>422</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>75</v>
+      <c r="J11" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>66</v>
@@ -1941,7 +1970,7 @@
         <v>64</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H12" s="30">
         <v>0</v>
@@ -1949,7 +1978,9 @@
       <c r="I12" s="30">
         <v>401</v>
       </c>
-      <c r="J12" s="28"/>
+      <c r="J12" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="K12" s="28" t="s">
         <v>66</v>
       </c>
@@ -1981,7 +2012,7 @@
         <v>64</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H13" s="30">
         <v>0</v>
@@ -1989,7 +2020,9 @@
       <c r="I13" s="30">
         <v>401</v>
       </c>
-      <c r="J13" s="28"/>
+      <c r="J13" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="K13" s="28" t="s">
         <v>66</v>
       </c>
@@ -2029,7 +2062,9 @@
       <c r="I14" s="30">
         <v>200</v>
       </c>
-      <c r="J14" s="28"/>
+      <c r="J14" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="K14" s="28">
         <v>10</v>
       </c>
@@ -2041,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>61</v>
       </c>
@@ -2069,8 +2104,8 @@
       <c r="I15" s="32">
         <v>422</v>
       </c>
-      <c r="J15" s="31" t="s">
-        <v>75</v>
+      <c r="J15" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>66</v>
@@ -2083,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>61</v>
       </c>
@@ -2111,8 +2146,8 @@
       <c r="I16" s="32">
         <v>422</v>
       </c>
-      <c r="J16" s="31" t="s">
-        <v>75</v>
+      <c r="J16" s="22" t="s">
+        <v>80</v>
       </c>
       <c r="K16" s="31" t="s">
         <v>66</v>
@@ -2153,7 +2188,9 @@
       <c r="I17" s="32">
         <v>200</v>
       </c>
-      <c r="J17" s="31"/>
+      <c r="J17" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="K17" s="31">
         <v>10</v>
       </c>
@@ -2165,7 +2202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>62</v>
       </c>
@@ -2193,7 +2230,9 @@
       <c r="I18" s="30">
         <v>422</v>
       </c>
-      <c r="J18" s="28"/>
+      <c r="J18" s="14" t="s">
+        <v>84</v>
+      </c>
       <c r="K18" s="28" t="s">
         <v>66</v>
       </c>
@@ -2205,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>62</v>
       </c>
@@ -2233,7 +2272,9 @@
       <c r="I19" s="30">
         <v>422</v>
       </c>
-      <c r="J19" s="28"/>
+      <c r="J19" s="14" t="s">
+        <v>85</v>
+      </c>
       <c r="K19" s="28" t="s">
         <v>66</v>
       </c>
@@ -2265,15 +2306,17 @@
         <v>64</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H20" s="30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="30">
         <v>401</v>
       </c>
-      <c r="J20" s="28"/>
+      <c r="J20" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="K20" s="28">
         <v>90</v>
       </c>
@@ -2305,15 +2348,17 @@
         <v>64</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H21" s="30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="30">
         <v>401</v>
       </c>
-      <c r="J21" s="28"/>
+      <c r="J21" s="18" t="s">
+        <v>88</v>
+      </c>
       <c r="K21" s="28" t="s">
         <v>66</v>
       </c>
@@ -2345,7 +2390,7 @@
         <v>65</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H22" s="30">
         <v>0</v>
@@ -2353,7 +2398,9 @@
       <c r="I22" s="30">
         <v>200</v>
       </c>
-      <c r="J22" s="28"/>
+      <c r="J22" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="K22" s="28">
         <v>20</v>
       </c>
@@ -2365,7 +2412,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>42</v>
       </c>
@@ -2393,7 +2440,9 @@
       <c r="I23" s="32">
         <v>422</v>
       </c>
-      <c r="J23" s="31"/>
+      <c r="J23" s="22" t="s">
+        <v>84</v>
+      </c>
       <c r="K23" s="31" t="s">
         <v>66</v>
       </c>
@@ -2405,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>42</v>
       </c>
@@ -2428,12 +2477,14 @@
         <v>70</v>
       </c>
       <c r="H24" s="32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="32">
         <v>401</v>
       </c>
-      <c r="J24" s="31"/>
+      <c r="J24" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="K24" s="31">
         <v>90</v>
       </c>
@@ -2468,12 +2519,14 @@
         <v>70</v>
       </c>
       <c r="H25" s="32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" s="32">
         <v>401</v>
       </c>
-      <c r="J25" s="31"/>
+      <c r="J25" s="22" t="s">
+        <v>90</v>
+      </c>
       <c r="K25" s="31" t="s">
         <v>66</v>
       </c>
@@ -2505,7 +2558,7 @@
         <v>65</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H26" s="32">
         <v>0</v>
@@ -2513,7 +2566,9 @@
       <c r="I26" s="32">
         <v>200</v>
       </c>
-      <c r="J26" s="31"/>
+      <c r="J26" s="22" t="s">
+        <v>69</v>
+      </c>
       <c r="K26" s="31" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +2580,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>63</v>
       </c>
@@ -2553,7 +2608,9 @@
       <c r="I27" s="30">
         <v>422</v>
       </c>
-      <c r="J27" s="28"/>
+      <c r="J27" s="18" t="s">
+        <v>86</v>
+      </c>
       <c r="K27" s="28" t="s">
         <v>66</v>
       </c>
@@ -2593,7 +2650,9 @@
       <c r="I28" s="30">
         <v>200</v>
       </c>
-      <c r="J28" s="28"/>
+      <c r="J28" s="18" t="s">
+        <v>69</v>
+      </c>
       <c r="K28" s="28">
         <v>10</v>
       </c>

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15CCC14-3346-E247-9666-8C5F56300094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C1F180-F488-7A4E-8F81-126952058280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="6200" windowWidth="28240" windowHeight="14140" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
+    <workbookView xWindow="2040" yWindow="1100" windowWidth="22220" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="93">
   <si>
     <t>-</t>
   </si>
@@ -232,12 +232,6 @@
     <t>Forgot password</t>
   </si>
   <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
     <t>*NC</t>
   </si>
   <si>
@@ -256,12 +250,6 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Pre-UserStatus</t>
-  </si>
-  <si>
-    <t>Post UserStatus</t>
-  </si>
-  <si>
     <t>{"email": "dummy@sample.com", "password": "Right-Password01!"}</t>
   </si>
   <si>
@@ -274,24 +262,6 @@
     <t>{"email": "dummy@sample.com", "password": "Wrong-Password!", "new_password": "Right-New_Password1!",  "new_password_repeated": "Right-New_Password1!"}</t>
   </si>
   <si>
-    <t>Expected HTTP status</t>
-  </si>
-  <si>
-    <t>Expected response</t>
-  </si>
-  <si>
-    <t>{"detail": "The user already exists."}</t>
-  </si>
-  <si>
-    <t>{"detail": "The user is blacklisted."}</t>
-  </si>
-  <si>
-    <t>{"detail": "The user is blocked. Please try again later."}</t>
-  </si>
-  <si>
-    <t>{"detail": "The password is expired."}</t>
-  </si>
-  <si>
     <t>{"type": "missing","loc": ["body", "password"],"msg": "Field required"}</t>
   </si>
   <si>
@@ -301,16 +271,52 @@
     <t>{"type": "missing","loc": ["body", "email"],"msg": "Field required"}</t>
   </si>
   <si>
-    <t>{"detail": "Incorrect existing password. The user has been blocked. Please try again later."}</t>
-  </si>
-  <si>
-    <t>{"detail": "Incorrect existing password. Please try again."}</t>
-  </si>
-  <si>
-    <t>{"detail": "The password is not valid. The user has been blocked. Please try again later."}</t>
-  </si>
-  <si>
-    <t>{"detail": "The password is not valid. Please try again."}</t>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>HTTP status</t>
+  </si>
+  <si>
+    <t>Pre</t>
+  </si>
+  <si>
+    <t>UserStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post </t>
+  </si>
+  <si>
+    <t>Content</t>
+  </si>
+  <si>
+    <t>Expected Response</t>
+  </si>
+  <si>
+    <t>The user already exists.</t>
+  </si>
+  <si>
+    <t>The user is blacklisted.</t>
+  </si>
+  <si>
+    <t>The user is blocked. Please try again later.</t>
+  </si>
+  <si>
+    <t>Incorrect existing password. The user has been blocked. Please try again later.</t>
+  </si>
+  <si>
+    <t>Incorrect existing password. Please try again.</t>
+  </si>
+  <si>
+    <t>The password is not valid. The user has been blocked. Please try again later.</t>
+  </si>
+  <si>
+    <t>The password is not valid. Please try again.</t>
+  </si>
+  <si>
+    <t>*message</t>
+  </si>
+  <si>
+    <t>The password is expired.</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -576,6 +582,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1496,118 +1514,122 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J30" sqref="J30"/>
+      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="36" customWidth="1"/>
-    <col min="8" max="8" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29" style="36" customWidth="1"/>
+    <col min="5" max="5" width="29" style="36" customWidth="1"/>
+    <col min="6" max="6" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="29" style="36" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="7" customWidth="1"/>
     <col min="11" max="11" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="68" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="9" t="s">
+      <c r="F1" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="K2" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
-        <v>99</v>
+      <c r="C3" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="27">
+        <v>422</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="26">
+        <v>99</v>
+      </c>
+      <c r="K3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="27">
-        <v>0</v>
-      </c>
-      <c r="I3" s="27">
-        <v>422</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="L3" s="15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(J3,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H3,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M3" s="29" t="s">
@@ -1621,35 +1643,35 @@
       <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="28">
-        <v>99</v>
+      <c r="C4" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="E4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>401</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="28">
+        <v>99</v>
+      </c>
+      <c r="K4" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30">
-        <v>401</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K4" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="L4" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(J4,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H4,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M4" s="29" t="s">
@@ -1663,35 +1685,35 @@
       <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="28">
-        <v>99</v>
+      <c r="C5" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="30" t="s">
+      <c r="E5" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>401</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="28">
+        <v>99</v>
+      </c>
+      <c r="K5" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30">
-        <v>401</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="L5" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(J5,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H5,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M5" s="29" t="s">
@@ -1705,74 +1727,74 @@
       <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="28">
-        <v>99</v>
+      <c r="C6" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="30" t="s">
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
+        <v>401</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="28">
+        <v>99</v>
+      </c>
+      <c r="K6" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-      <c r="I6" s="30">
-        <v>401</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" s="28" t="s">
-        <v>66</v>
-      </c>
       <c r="L6" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(J6,State!$A$3:$B$8,2,FALSE),"")</f>
+        <f>_xlfn.IFNA(VLOOKUP(H6,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
       <c r="M6" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="31">
-        <v>90</v>
+      <c r="C7" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="32" t="s">
+      <c r="E7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="32">
+        <v>0</v>
+      </c>
+      <c r="G7" s="32">
+        <v>422</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="31">
+        <v>90</v>
+      </c>
+      <c r="K7" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H7" s="32">
-        <v>0</v>
-      </c>
-      <c r="I7" s="32">
-        <v>422</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L7" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K7,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1782,39 +1804,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="31">
-        <v>90</v>
+      <c r="C8" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="32" t="s">
+      <c r="E8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="32">
+        <v>0</v>
+      </c>
+      <c r="G8" s="32">
+        <v>401</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="31">
+        <v>90</v>
+      </c>
+      <c r="K8" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="32">
-        <v>0</v>
-      </c>
-      <c r="I8" s="32">
-        <v>401</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K8,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1831,32 +1853,32 @@
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="31">
-        <v>90</v>
+      <c r="C9" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="32" t="s">
+      <c r="E9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="32">
+        <v>0</v>
+      </c>
+      <c r="G9" s="32">
+        <v>401</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="31">
+        <v>90</v>
+      </c>
+      <c r="K9" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="32">
-        <v>0</v>
-      </c>
-      <c r="I9" s="32">
-        <v>401</v>
-      </c>
-      <c r="J9" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L9" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K9,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1866,36 +1888,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>59</v>
       </c>
       <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="31">
-        <v>90</v>
+      <c r="C10" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="32">
-        <v>0</v>
-      </c>
-      <c r="I10" s="32">
+      <c r="E10" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0</v>
+      </c>
+      <c r="G10" s="32">
         <v>200</v>
       </c>
-      <c r="J10" s="31" t="s">
-        <v>69</v>
+      <c r="H10" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31">
+        <v>90</v>
       </c>
       <c r="K10" s="31">
         <v>10</v>
@@ -1908,39 +1928,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>58</v>
       </c>
       <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="28">
-        <v>80</v>
+      <c r="C11" s="17" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="E11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="27">
+        <v>422</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="28">
+        <v>80</v>
+      </c>
+      <c r="K11" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27">
-        <v>422</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L11" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K11,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1957,32 +1977,32 @@
       <c r="B12" s="28">
         <v>10</v>
       </c>
-      <c r="C12" s="28">
-        <v>80</v>
+      <c r="C12" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="30" t="s">
+      <c r="E12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>401</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="28">
+        <v>80</v>
+      </c>
+      <c r="K12" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
-        <v>401</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L12" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K12,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1999,32 +2019,32 @@
       <c r="B13" s="28">
         <v>11</v>
       </c>
-      <c r="C13" s="28">
-        <v>80</v>
+      <c r="C13" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>401</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="28">
+        <v>80</v>
+      </c>
+      <c r="K13" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
-        <v>401</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L13" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K13,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2041,29 +2061,27 @@
       <c r="B14" s="28">
         <v>12</v>
       </c>
-      <c r="C14" s="28">
-        <v>80</v>
+      <c r="C14" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
+      <c r="E14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
         <v>200</v>
       </c>
-      <c r="J14" s="14" t="s">
-        <v>69</v>
+      <c r="H14" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="28">
+        <v>80</v>
       </c>
       <c r="K14" s="28">
         <v>10</v>
@@ -2076,39 +2094,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="31">
-        <v>10</v>
+      <c r="C15" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>422</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="31">
+        <v>10</v>
+      </c>
+      <c r="K15" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="32">
-        <v>0</v>
-      </c>
-      <c r="I15" s="32">
-        <v>422</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K15,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2118,39 +2136,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
         <v>61</v>
       </c>
       <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="31">
-        <v>20</v>
+      <c r="C16" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="32" t="s">
+      <c r="E16" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0</v>
+      </c>
+      <c r="G16" s="32">
+        <v>422</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="31">
+        <v>20</v>
+      </c>
+      <c r="K16" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="32">
-        <v>0</v>
-      </c>
-      <c r="I16" s="32">
-        <v>422</v>
-      </c>
-      <c r="J16" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L16" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K16,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2168,28 +2186,26 @@
         <v>15</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="32">
-        <v>0</v>
-      </c>
-      <c r="I17" s="32">
+      <c r="E17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
         <v>200</v>
       </c>
-      <c r="J17" s="22" t="s">
-        <v>69</v>
+      <c r="H17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="K17" s="31">
         <v>10</v>
@@ -2209,32 +2225,30 @@
       <c r="B18" s="28">
         <v>16</v>
       </c>
-      <c r="C18" s="28">
-        <v>20</v>
+      <c r="C18" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="30" t="s">
+      <c r="E18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="30">
+        <v>0</v>
+      </c>
+      <c r="G18" s="30">
+        <v>422</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="14"/>
+      <c r="J18" s="28">
+        <v>20</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H18" s="30">
-        <v>0</v>
-      </c>
-      <c r="I18" s="30">
-        <v>422</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L18" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K18,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2251,32 +2265,30 @@
       <c r="B19" s="28">
         <v>17</v>
       </c>
-      <c r="C19" s="28">
-        <v>10</v>
+      <c r="C19" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="30" t="s">
+      <c r="E19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="30">
+        <v>0</v>
+      </c>
+      <c r="G19" s="30">
+        <v>422</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="J19" s="28">
+        <v>10</v>
+      </c>
+      <c r="K19" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="30">
-        <v>0</v>
-      </c>
-      <c r="I19" s="30">
-        <v>422</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L19" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K19,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2293,29 +2305,29 @@
       <c r="B20" s="28">
         <v>18</v>
       </c>
-      <c r="C20" s="28">
-        <v>10</v>
+      <c r="C20" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="30">
+      <c r="E20" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="30">
         <v>4</v>
       </c>
-      <c r="I20" s="30">
+      <c r="G20" s="30">
         <v>401</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="H20" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="18" t="s">
         <v>87</v>
+      </c>
+      <c r="J20" s="28">
+        <v>10</v>
       </c>
       <c r="K20" s="28">
         <v>90</v>
@@ -2335,32 +2347,32 @@
       <c r="B21" s="28">
         <v>19</v>
       </c>
-      <c r="C21" s="28">
-        <v>10</v>
+      <c r="C21" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="30" t="s">
+      <c r="E21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="30">
+        <v>3</v>
+      </c>
+      <c r="G21" s="30">
+        <v>401</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="28">
+        <v>10</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="30">
-        <v>3</v>
-      </c>
-      <c r="I21" s="30">
-        <v>401</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="K21" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L21" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K21,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2377,29 +2389,27 @@
       <c r="B22" s="28">
         <v>20</v>
       </c>
-      <c r="C22" s="28">
-        <v>10</v>
+      <c r="C22" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="H22" s="30">
-        <v>0</v>
-      </c>
-      <c r="I22" s="30">
+      <c r="E22" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="30">
+        <v>0</v>
+      </c>
+      <c r="G22" s="30">
         <v>200</v>
       </c>
-      <c r="J22" s="18" t="s">
-        <v>69</v>
+      <c r="H22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="28">
+        <v>10</v>
       </c>
       <c r="K22" s="28">
         <v>20</v>
@@ -2419,32 +2429,30 @@
       <c r="B23" s="31">
         <v>21</v>
       </c>
-      <c r="C23" s="31">
-        <v>10</v>
+      <c r="C23" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>422</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="31">
+        <v>10</v>
+      </c>
+      <c r="K23" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="32">
-        <v>0</v>
-      </c>
-      <c r="I23" s="32">
-        <v>422</v>
-      </c>
-      <c r="J23" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L23" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K23,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2461,29 +2469,29 @@
       <c r="B24" s="31">
         <v>22</v>
       </c>
-      <c r="C24" s="31">
-        <v>20</v>
+      <c r="C24" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H24" s="32">
+      <c r="E24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="32">
         <v>4</v>
       </c>
-      <c r="I24" s="32">
+      <c r="G24" s="32">
         <v>401</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="H24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="22" t="s">
         <v>89</v>
+      </c>
+      <c r="J24" s="31">
+        <v>20</v>
       </c>
       <c r="K24" s="31">
         <v>90</v>
@@ -2503,32 +2511,32 @@
       <c r="B25" s="31">
         <v>23</v>
       </c>
-      <c r="C25" s="31">
-        <v>20</v>
+      <c r="C25" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="32">
+        <v>3</v>
+      </c>
+      <c r="G25" s="32">
+        <v>401</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="31">
+        <v>20</v>
+      </c>
+      <c r="K25" s="31" t="s">
         <v>64</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H25" s="32">
-        <v>3</v>
-      </c>
-      <c r="I25" s="32">
-        <v>401</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>66</v>
       </c>
       <c r="L25" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K25,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2545,32 +2553,30 @@
       <c r="B26" s="31">
         <v>24</v>
       </c>
-      <c r="C26" s="31">
-        <v>20</v>
+      <c r="C26" s="21" t="s">
+        <v>54</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="32">
-        <v>0</v>
-      </c>
-      <c r="I26" s="32">
+      <c r="E26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="32">
+        <v>0</v>
+      </c>
+      <c r="G26" s="32">
         <v>200</v>
       </c>
-      <c r="J26" s="22" t="s">
-        <v>69</v>
+      <c r="H26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="31">
+        <v>20</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L26" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K26,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2587,32 +2593,30 @@
       <c r="B27" s="28">
         <v>25</v>
       </c>
-      <c r="C27" s="28">
-        <v>10</v>
+      <c r="C27" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F27" s="30" t="s">
+      <c r="E27" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="30">
+        <v>0</v>
+      </c>
+      <c r="G27" s="30">
+        <v>422</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="28">
+        <v>10</v>
+      </c>
+      <c r="K27" s="28" t="s">
         <v>64</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0</v>
-      </c>
-      <c r="I27" s="30">
-        <v>422</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>66</v>
       </c>
       <c r="L27" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K27,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2629,29 +2633,27 @@
       <c r="B28" s="28">
         <v>26</v>
       </c>
-      <c r="C28" s="28">
-        <v>20</v>
+      <c r="C28" s="17" t="s">
+        <v>56</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0</v>
-      </c>
-      <c r="I28" s="30">
+      <c r="E28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="30">
+        <v>0</v>
+      </c>
+      <c r="G28" s="30">
         <v>200</v>
       </c>
-      <c r="J28" s="18" t="s">
-        <v>69</v>
+      <c r="H28" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="18"/>
+      <c r="J28" s="28">
+        <v>20</v>
       </c>
       <c r="K28" s="28">
         <v>10</v>

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C1F180-F488-7A4E-8F81-126952058280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71655E-D8FC-254B-A99A-79DCD68A016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="22220" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -205,9 +205,6 @@
     <t>login</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
     <t>forgot</t>
   </si>
   <si>
@@ -226,9 +223,6 @@
     <t>Registration</t>
   </si>
   <si>
-    <t>Set password</t>
-  </si>
-  <si>
     <t>Forgot password</t>
   </si>
   <si>
@@ -317,6 +311,12 @@
   </si>
   <si>
     <t>The password is expired.</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>Change password</t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1514,8 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1541,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>7</v>
@@ -1553,15 +1553,15 @@
         <v>12</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
@@ -1577,26 +1577,26 @@
       <c r="E2" s="40"/>
       <c r="F2" s="40"/>
       <c r="G2" s="40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="K2" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>81</v>
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
@@ -1608,7 +1608,7 @@
         <v>54</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F3" s="27">
         <v>0</v>
@@ -1617,16 +1617,16 @@
         <v>422</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J3" s="26">
         <v>99</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L3" s="15" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H3,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1638,7 +1638,7 @@
     </row>
     <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="28">
         <v>2</v>
@@ -1650,7 +1650,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="30">
         <v>0</v>
@@ -1659,16 +1659,16 @@
         <v>401</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J4" s="28">
         <v>99</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L4" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H4,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1680,19 +1680,19 @@
     </row>
     <row r="5" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="28">
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F5" s="30">
         <v>0</v>
@@ -1701,16 +1701,16 @@
         <v>401</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="28">
         <v>99</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L5" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H5,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1722,19 +1722,19 @@
     </row>
     <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="28">
         <v>4</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F6" s="30">
         <v>0</v>
@@ -1743,16 +1743,16 @@
         <v>401</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J6" s="28">
         <v>99</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L6" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(H6,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1764,7 +1764,7 @@
     </row>
     <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="31">
         <v>5</v>
@@ -1776,7 +1776,7 @@
         <v>54</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F7" s="32">
         <v>0</v>
@@ -1785,16 +1785,16 @@
         <v>422</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I7" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J7" s="31">
         <v>90</v>
       </c>
       <c r="K7" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L7" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K7,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="31">
         <v>6</v>
@@ -1818,7 +1818,7 @@
         <v>54</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F8" s="32">
         <v>0</v>
@@ -1827,16 +1827,16 @@
         <v>401</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="31">
         <v>90</v>
       </c>
       <c r="K8" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L8" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K8,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1848,19 +1848,19 @@
     </row>
     <row r="9" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>55</v>
+      <c r="C9" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="32">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>401</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="31">
         <v>90</v>
       </c>
       <c r="K9" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L9" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K9,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1890,19 +1890,19 @@
     </row>
     <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="31">
         <v>8</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F10" s="32">
         <v>0</v>
@@ -1911,7 +1911,7 @@
         <v>200</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31">
@@ -1930,7 +1930,7 @@
     </row>
     <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="28">
         <v>9</v>
@@ -1942,7 +1942,7 @@
         <v>54</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11" s="30">
         <v>0</v>
@@ -1951,16 +1951,16 @@
         <v>422</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" s="28">
         <v>80</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L11" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K11,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="28">
         <v>10</v>
@@ -1984,7 +1984,7 @@
         <v>54</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F12" s="30">
         <v>0</v>
@@ -1993,16 +1993,16 @@
         <v>401</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J12" s="28">
         <v>80</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L12" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K12,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2014,19 +2014,19 @@
     </row>
     <row r="13" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="28">
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="30">
         <v>0</v>
@@ -2035,16 +2035,16 @@
         <v>401</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J13" s="28">
         <v>80</v>
       </c>
       <c r="K13" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L13" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K13,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2056,19 +2056,19 @@
     </row>
     <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="28">
         <v>12</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="30">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>200</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="28">
@@ -2096,7 +2096,7 @@
     </row>
     <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="31">
         <v>13</v>
@@ -2108,7 +2108,7 @@
         <v>54</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F15" s="32">
         <v>0</v>
@@ -2117,16 +2117,16 @@
         <v>422</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J15" s="31">
         <v>10</v>
       </c>
       <c r="K15" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L15" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K15,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="31">
         <v>14</v>
@@ -2150,7 +2150,7 @@
         <v>54</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F16" s="32">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         <v>422</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J16" s="31">
         <v>20</v>
       </c>
       <c r="K16" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L16" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K16,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="21">
         <v>15</v>
@@ -2192,7 +2192,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F17" s="32">
         <v>0</v>
@@ -2201,11 +2201,11 @@
         <v>200</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I17" s="22"/>
       <c r="J17" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17" s="31">
         <v>10</v>
@@ -2220,19 +2220,19 @@
     </row>
     <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B18" s="28">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F18" s="30">
         <v>0</v>
@@ -2241,14 +2241,14 @@
         <v>422</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I18" s="14"/>
       <c r="J18" s="28">
         <v>20</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L18" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K18,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2260,19 +2260,19 @@
     </row>
     <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B19" s="28">
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19" s="30">
         <v>0</v>
@@ -2281,14 +2281,14 @@
         <v>422</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I19" s="14"/>
       <c r="J19" s="28">
         <v>10</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L19" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K19,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2300,19 +2300,19 @@
     </row>
     <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B20" s="28">
         <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F20" s="30">
         <v>4</v>
@@ -2321,10 +2321,10 @@
         <v>401</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J20" s="28">
         <v>10</v>
@@ -2342,19 +2342,19 @@
     </row>
     <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B21" s="28">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="30">
         <v>3</v>
@@ -2363,16 +2363,16 @@
         <v>401</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J21" s="28">
         <v>10</v>
       </c>
       <c r="K21" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L21" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K21,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2384,19 +2384,19 @@
     </row>
     <row r="22" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B22" s="28">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F22" s="30">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>200</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I22" s="18"/>
       <c r="J22" s="28">
@@ -2436,7 +2436,7 @@
         <v>54</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F23" s="32">
         <v>0</v>
@@ -2445,14 +2445,14 @@
         <v>422</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="31">
         <v>10</v>
       </c>
       <c r="K23" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L23" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K23,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2476,7 +2476,7 @@
         <v>54</v>
       </c>
       <c r="E24" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F24" s="32">
         <v>4</v>
@@ -2485,10 +2485,10 @@
         <v>401</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J24" s="31">
         <v>20</v>
@@ -2518,7 +2518,7 @@
         <v>54</v>
       </c>
       <c r="E25" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F25" s="32">
         <v>3</v>
@@ -2527,16 +2527,16 @@
         <v>401</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J25" s="31">
         <v>20</v>
       </c>
       <c r="K25" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L25" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K25,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2560,7 +2560,7 @@
         <v>54</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F26" s="32">
         <v>0</v>
@@ -2569,14 +2569,14 @@
         <v>200</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I26" s="22"/>
       <c r="J26" s="31">
         <v>20</v>
       </c>
       <c r="K26" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L26" s="23" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K26,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2588,19 +2588,19 @@
     </row>
     <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B27" s="28">
         <v>25</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F27" s="30">
         <v>0</v>
@@ -2609,14 +2609,14 @@
         <v>422</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I27" s="18"/>
       <c r="J27" s="28">
         <v>10</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L27" s="19" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K27,State!$A$3:$B$8,2,FALSE),"")</f>
@@ -2628,19 +2628,19 @@
     </row>
     <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="28">
         <v>26</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F28" s="30">
         <v>0</v>
@@ -2649,7 +2649,7 @@
         <v>200</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I28" s="18"/>
       <c r="J28" s="28">

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B71655E-D8FC-254B-A99A-79DCD68A016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A521F-964C-3C47-B090-B0176890ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="22220" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="91">
   <si>
     <t>-</t>
   </si>
@@ -295,13 +295,7 @@
     <t>The user is blocked. Please try again later.</t>
   </si>
   <si>
-    <t>Incorrect existing password. The user has been blocked. Please try again later.</t>
-  </si>
-  <si>
     <t>Incorrect existing password. Please try again.</t>
-  </si>
-  <si>
-    <t>The password is not valid. The user has been blocked. Please try again later.</t>
   </si>
   <si>
     <t>The password is not valid. Please try again.</t>
@@ -1514,8 +1508,8 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:A22"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1617,7 +1611,7 @@
         <v>422</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>82</v>
@@ -1659,7 +1653,7 @@
         <v>401</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I4" s="14" t="s">
         <v>83</v>
@@ -1686,7 +1680,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>39</v>
@@ -1701,7 +1695,7 @@
         <v>401</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>83</v>
@@ -1743,7 +1737,7 @@
         <v>401</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I6" s="14" t="s">
         <v>83</v>
@@ -1785,7 +1779,7 @@
         <v>422</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I7" s="31" t="s">
         <v>82</v>
@@ -1827,7 +1821,7 @@
         <v>401</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I8" s="31" t="s">
         <v>84</v>
@@ -1854,7 +1848,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>39</v>
@@ -1869,7 +1863,7 @@
         <v>401</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>84</v>
@@ -1951,7 +1945,7 @@
         <v>422</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>82</v>
@@ -1993,10 +1987,10 @@
         <v>401</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J12" s="28">
         <v>80</v>
@@ -2020,7 +2014,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>39</v>
@@ -2035,10 +2029,10 @@
         <v>401</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J13" s="28">
         <v>80</v>
@@ -2117,7 +2111,7 @@
         <v>422</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>82</v>
@@ -2159,7 +2153,7 @@
         <v>422</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>82</v>
@@ -2220,13 +2214,13 @@
     </row>
     <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="28">
         <v>16</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>39</v>
@@ -2260,13 +2254,13 @@
     </row>
     <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B19" s="28">
         <v>17</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>39</v>
@@ -2300,13 +2294,13 @@
     </row>
     <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B20" s="28">
         <v>18</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>39</v>
@@ -2321,10 +2315,10 @@
         <v>401</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="28">
         <v>10</v>
@@ -2342,13 +2336,13 @@
     </row>
     <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="28">
         <v>19</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>39</v>
@@ -2363,10 +2357,10 @@
         <v>401</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" s="28">
         <v>10</v>
@@ -2384,13 +2378,13 @@
     </row>
     <row r="22" spans="1:13" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="28">
         <v>20</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>39</v>
@@ -2462,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>42</v>
       </c>
@@ -2485,10 +2479,10 @@
         <v>401</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J24" s="31">
         <v>20</v>
@@ -2527,10 +2521,10 @@
         <v>401</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J25" s="31">
         <v>20</v>

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{863A521F-964C-3C47-B090-B0176890ABF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FC815-C5C0-8E4E-BC54-AFDF91DCDCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="22220" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -1508,8 +1508,8 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2309,7 +2309,7 @@
         <v>71</v>
       </c>
       <c r="F20" s="30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G20" s="30">
         <v>401</v>
@@ -2473,7 +2473,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G24" s="32">
         <v>401</v>

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1FC815-C5C0-8E4E-BC54-AFDF91DCDCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8FD93-8B9E-3E47-B7BC-00E0ADEE038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1100" windowWidth="22220" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
+    <workbookView xWindow="2040" yWindow="1100" windowWidth="23120" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Test cases" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="95">
   <si>
     <t>-</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
     <t>register</t>
   </si>
   <si>
@@ -311,6 +308,21 @@
   </si>
   <si>
     <t>Change password</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>1=Group</t>
+  </si>
+  <si>
+    <t>2=Endpoint</t>
+  </si>
+  <si>
+    <t>3=Entity</t>
   </si>
 </sst>
 </file>
@@ -1505,1158 +1517,1229 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DB7162-4CDB-1E49-A9D6-A74F09DB89DA}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="36" customWidth="1"/>
-    <col min="6" max="6" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="29" style="36" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="9.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29" style="36" customWidth="1"/>
+    <col min="7" max="7" width="7" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="35" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="29" style="36" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="39" t="s">
+        <v>77</v>
+      </c>
       <c r="L1" s="38"/>
-      <c r="M1" s="38" t="s">
+      <c r="M1" s="38"/>
+      <c r="N1" s="38" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="C2" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>93</v>
+      </c>
       <c r="F2" s="40"/>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="40"/>
+      <c r="H2" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="40"/>
+      <c r="L2" s="40" t="s">
+        <v>78</v>
+      </c>
       <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N2" s="40"/>
+    </row>
+    <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="26">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
+      <c r="E3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G3" s="27">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
         <v>422</v>
       </c>
-      <c r="H3" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="I3" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="26">
+        <v>86</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" s="26">
         <v>99</v>
       </c>
-      <c r="K3" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" s="15" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H3,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="15" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I3,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N3" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="28">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>54</v>
+      <c r="C4" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
         <v>401</v>
       </c>
-      <c r="H4" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="I4" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="28">
+        <v>86</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="28">
         <v>99</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H4,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I4,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M4" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N4" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="28">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>89</v>
+      <c r="C5" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
+      <c r="E5" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
         <v>401</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="I5" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="28">
+        <v>86</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5" s="28">
         <v>99</v>
       </c>
-      <c r="K5" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L5" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H5,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L5" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I5,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M5" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N5" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="28">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>55</v>
+      <c r="C6" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="30">
-        <v>0</v>
+      <c r="E6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
         <v>401</v>
       </c>
-      <c r="H6" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="I6" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="28">
+        <v>86</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" s="28">
         <v>99</v>
       </c>
-      <c r="K6" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(H6,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L6" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(I6,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M6" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N6" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="31">
         <v>5</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
+      <c r="E7" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="G7" s="32">
+        <v>0</v>
+      </c>
+      <c r="H7" s="32">
         <v>422</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="I7" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="31">
-        <v>90</v>
-      </c>
-      <c r="K7" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L7" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K7,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I7" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="31">
+        <v>90</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L7,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M7" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N7" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="31">
         <v>6</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>54</v>
+      <c r="C8" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="G8" s="32">
+        <v>0</v>
+      </c>
+      <c r="H8" s="32">
         <v>401</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="31">
-        <v>90</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K8,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="I8" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="31">
+        <v>90</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L8,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M8" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N8" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="31">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>89</v>
+      <c r="C9" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0</v>
+      <c r="E9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="G9" s="32">
+        <v>0</v>
+      </c>
+      <c r="H9" s="32">
         <v>401</v>
       </c>
-      <c r="H9" s="25" t="s">
-        <v>87</v>
-      </c>
       <c r="I9" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="31">
-        <v>90</v>
-      </c>
-      <c r="K9" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L9" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K9,State!$A$3:$B$8,2,FALSE),"")</f>
+        <v>86</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" s="31">
+        <v>90</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L9,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M9" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N9" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="31">
         <v>8</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>55</v>
+      <c r="C10" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0</v>
+      <c r="E10" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>64</v>
       </c>
       <c r="G10" s="32">
+        <v>0</v>
+      </c>
+      <c r="H10" s="32">
         <v>200</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31">
-        <v>90</v>
-      </c>
+      <c r="I10" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="31"/>
       <c r="K10" s="31">
+        <v>90</v>
+      </c>
+      <c r="L10" s="31">
         <v>10</v>
       </c>
-      <c r="L10" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K10,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="M10" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L10,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="M10" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N10" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="28">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="27">
+      <c r="E11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="27">
         <v>422</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="I11" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="28">
+        <v>86</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" s="28">
         <v>80</v>
       </c>
-      <c r="K11" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K11,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L11" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L11,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M11" s="29" t="s">
+      <c r="N11" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="28">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>54</v>
+      <c r="C12" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
         <v>401</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="28">
+      <c r="K12" s="28">
         <v>80</v>
       </c>
-      <c r="K12" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K12,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L12,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M12" s="29" t="s">
+      <c r="N12" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="28">
         <v>11</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>89</v>
+      <c r="C13" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
+      <c r="E13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
         <v>401</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="I13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="28">
+      <c r="K13" s="28">
         <v>80</v>
       </c>
-      <c r="K13" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L13" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K13,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L13" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L13,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M13" s="29" t="s">
+      <c r="N13" s="29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="28">
         <v>12</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>55</v>
+      <c r="C14" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
+      <c r="E14" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
         <v>200</v>
       </c>
-      <c r="H14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="14"/>
-      <c r="J14" s="28">
+      <c r="I14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="28">
         <v>80</v>
       </c>
-      <c r="K14" s="28">
+      <c r="L14" s="28">
         <v>10</v>
       </c>
-      <c r="L14" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K14,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="M14" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L14,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="M14" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N14" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="31">
         <v>13</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0</v>
+      <c r="E15" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G15" s="32">
+        <v>0</v>
+      </c>
+      <c r="H15" s="32">
         <v>422</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>87</v>
-      </c>
       <c r="I15" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J15" s="31">
+        <v>86</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" s="31">
         <v>10</v>
       </c>
-      <c r="K15" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K15,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L15" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M15" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L15,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M15" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N15" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="32">
-        <v>0</v>
+      <c r="E16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="32">
         <v>422</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>87</v>
-      </c>
       <c r="I16" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="31">
+        <v>86</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" s="31">
         <v>20</v>
       </c>
-      <c r="K16" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L16" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K16,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L16,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M16" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N16" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="21">
         <v>15</v>
       </c>
       <c r="C17" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="32">
-        <v>0</v>
+      <c r="E17" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G17" s="32">
+        <v>0</v>
+      </c>
+      <c r="H17" s="32">
         <v>200</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="31">
+      <c r="I17" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="31">
         <v>10</v>
       </c>
-      <c r="L17" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K17,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="M17" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L17,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="M17" s="34" t="s">
+      <c r="N17" s="34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="28">
         <v>16</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>89</v>
+      <c r="C18" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="30">
-        <v>0</v>
+      <c r="E18" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="G18" s="30">
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
         <v>422</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="28">
+      <c r="I18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="28">
         <v>20</v>
       </c>
-      <c r="K18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L18" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K18,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M18" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L18,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M18" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="N18" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="28">
         <v>17</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>89</v>
+      <c r="C19" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="30">
-        <v>0</v>
+      <c r="E19" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="G19" s="30">
+        <v>0</v>
+      </c>
+      <c r="H19" s="30">
         <v>422</v>
       </c>
-      <c r="H19" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I19" s="14"/>
-      <c r="J19" s="28">
+      <c r="I19" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="14"/>
+      <c r="K19" s="28">
         <v>10</v>
       </c>
-      <c r="K19" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K19,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L19,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M19" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N19" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="28">
         <v>18</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>89</v>
+      <c r="C20" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="30">
+      <c r="E20" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="30">
         <v>5</v>
       </c>
-      <c r="G20" s="30">
+      <c r="H20" s="30">
         <v>401</v>
       </c>
-      <c r="H20" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="I20" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="28">
+        <v>86</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="K20" s="28">
         <v>10</v>
       </c>
-      <c r="K20" s="28">
-        <v>90</v>
-      </c>
-      <c r="L20" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K20,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L20" s="28">
+        <v>90</v>
+      </c>
+      <c r="M20" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L20,State!$A$3:$B$8,2,FALSE),"")</f>
         <v xml:space="preserve">Blocked </v>
       </c>
-      <c r="M20" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N20" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="28">
         <v>19</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>89</v>
+      <c r="C21" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="30">
+      <c r="E21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="30">
         <v>3</v>
       </c>
-      <c r="G21" s="30">
+      <c r="H21" s="30">
         <v>401</v>
       </c>
-      <c r="H21" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="I21" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="J21" s="28">
+        <v>86</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="28">
         <v>10</v>
       </c>
-      <c r="K21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K21,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L21" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L21,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M21" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="102" x14ac:dyDescent="0.2">
+      <c r="N21" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="28">
         <v>20</v>
       </c>
-      <c r="C22" s="17" t="s">
-        <v>89</v>
+      <c r="C22" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="30">
-        <v>0</v>
+      <c r="E22" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="G22" s="30">
+        <v>0</v>
+      </c>
+      <c r="H22" s="30">
         <v>200</v>
       </c>
-      <c r="H22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="28">
+      <c r="I22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="28">
         <v>10</v>
       </c>
-      <c r="K22" s="28">
+      <c r="L22" s="28">
         <v>20</v>
       </c>
-      <c r="L22" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K22,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="M22" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L22,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Active</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="N22" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="31">
         <v>21</v>
       </c>
-      <c r="C23" s="21" t="s">
-        <v>54</v>
+      <c r="C23" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="G23" s="32">
+        <v>0</v>
+      </c>
+      <c r="H23" s="32">
         <v>422</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I23" s="22"/>
-      <c r="J23" s="31">
+      <c r="I23" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="31">
         <v>10</v>
       </c>
-      <c r="K23" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K23,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L23,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M23" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N23" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B24" s="31">
         <v>22</v>
       </c>
-      <c r="C24" s="21" t="s">
-        <v>54</v>
+      <c r="C24" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="32">
+        <v>53</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="32">
         <v>5</v>
       </c>
-      <c r="G24" s="32">
+      <c r="H24" s="32">
         <v>401</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>87</v>
-      </c>
       <c r="I24" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="31">
+        <v>86</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="31">
         <v>20</v>
       </c>
-      <c r="K24" s="31">
-        <v>90</v>
-      </c>
-      <c r="L24" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K24,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L24" s="31">
+        <v>90</v>
+      </c>
+      <c r="M24" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L24,State!$A$3:$B$8,2,FALSE),"")</f>
         <v xml:space="preserve">Blocked </v>
       </c>
-      <c r="M24" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N24" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="31">
         <v>23</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>54</v>
+      <c r="C25" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="32">
+        <v>53</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="32">
         <v>3</v>
       </c>
-      <c r="G25" s="32">
+      <c r="H25" s="32">
         <v>401</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="I25" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="J25" s="31">
+      <c r="J25" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" s="31">
         <v>20</v>
       </c>
-      <c r="K25" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K25,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L25" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M25" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L25,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M25" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="N25" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="24" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="31">
         <v>24</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>54</v>
+      <c r="C26" s="31" t="s">
+        <v>90</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="G26" s="32">
+        <v>0</v>
+      </c>
+      <c r="H26" s="32">
         <v>200</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="31">
+      <c r="I26" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="22"/>
+      <c r="K26" s="31">
         <v>20</v>
       </c>
-      <c r="K26" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="L26" s="23" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K26,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M26" s="23" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L26,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M26" s="34" t="s">
+      <c r="N26" s="34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="28">
         <v>25</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>55</v>
+      <c r="C27" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="30">
-        <v>0</v>
+      <c r="E27" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="G27" s="30">
+        <v>0</v>
+      </c>
+      <c r="H27" s="30">
         <v>422</v>
       </c>
-      <c r="H27" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="28">
+      <c r="I27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="J27" s="18"/>
+      <c r="K27" s="28">
         <v>10</v>
       </c>
-      <c r="K27" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="L27" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K27,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="L27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L27,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="M27" s="29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="N27" s="29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="28">
         <v>26</v>
       </c>
-      <c r="C28" s="17" t="s">
-        <v>55</v>
+      <c r="C28" s="28" t="s">
+        <v>90</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="30">
-        <v>0</v>
+      <c r="E28" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="G28" s="30">
+        <v>0</v>
+      </c>
+      <c r="H28" s="30">
         <v>200</v>
       </c>
-      <c r="H28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="28">
+      <c r="I28" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="K28" s="28">
         <v>20</v>
       </c>
-      <c r="K28" s="28">
+      <c r="L28" s="28">
         <v>10</v>
       </c>
-      <c r="L28" s="19" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(K28,State!$A$3:$B$8,2,FALSE),"")</f>
+      <c r="M28" s="19" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(L28,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="M28" s="29" t="s">
+      <c r="N28" s="29" t="s">
         <v>49</v>
       </c>
     </row>

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE8FD93-8B9E-3E47-B7BC-00E0ADEE038E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE5D3D-4F13-484C-8576-813A0D522EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="23120" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -292,12 +292,6 @@
     <t>The user is blocked. Please try again later.</t>
   </si>
   <si>
-    <t>Incorrect existing password. Please try again.</t>
-  </si>
-  <si>
-    <t>The password is not valid. Please try again.</t>
-  </si>
-  <si>
     <t>*message</t>
   </si>
   <si>
@@ -323,6 +317,12 @@
   </si>
   <si>
     <t>3=Entity</t>
+  </si>
+  <si>
+    <t>Invalid login attempt. Please try again.</t>
+  </si>
+  <si>
+    <t>{"access_token": "*STRING", "token_type": "bearer"}</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1521,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23:E26"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1551,7 +1551,7 @@
         <v>66</v>
       </c>
       <c r="C1" s="38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
@@ -1579,13 +1579,13 @@
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>94</v>
-      </c>
       <c r="E2" s="38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="40"/>
       <c r="G2" s="40"/>
@@ -1615,7 +1615,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>53</v>
@@ -1633,7 +1633,7 @@
         <v>422</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J3" s="14" t="s">
         <v>81</v>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>53</v>
@@ -1676,7 +1676,7 @@
         <v>401</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J4" s="14" t="s">
         <v>82</v>
@@ -1703,13 +1703,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>68</v>
@@ -1721,7 +1721,7 @@
         <v>401</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>82</v>
@@ -1748,7 +1748,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>39</v>
@@ -1766,7 +1766,7 @@
         <v>401</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J6" s="14" t="s">
         <v>82</v>
@@ -1793,7 +1793,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>53</v>
@@ -1811,7 +1811,7 @@
         <v>422</v>
       </c>
       <c r="I7" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>81</v>
@@ -1838,7 +1838,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>53</v>
@@ -1854,7 +1854,7 @@
         <v>401</v>
       </c>
       <c r="I8" s="41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J8" s="31" t="s">
         <v>83</v>
@@ -1881,13 +1881,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F9" s="25" t="s">
         <v>68</v>
@@ -1899,7 +1899,7 @@
         <v>401</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="25" t="s">
         <v>83</v>
@@ -1926,7 +1926,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>39</v>
@@ -1969,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>53</v>
@@ -1987,7 +1987,7 @@
         <v>422</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>81</v>
@@ -2014,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>53</v>
@@ -2030,10 +2030,10 @@
         <v>401</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K12" s="28">
         <v>80</v>
@@ -2057,13 +2057,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>68</v>
@@ -2075,10 +2075,10 @@
         <v>401</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K13" s="28">
         <v>80</v>
@@ -2102,7 +2102,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>39</v>
@@ -2145,7 +2145,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>53</v>
@@ -2163,7 +2163,7 @@
         <v>422</v>
       </c>
       <c r="I15" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J15" s="22" t="s">
         <v>81</v>
@@ -2190,7 +2190,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>53</v>
@@ -2208,7 +2208,7 @@
         <v>422</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J16" s="22" t="s">
         <v>81</v>
@@ -2235,7 +2235,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>53</v>
@@ -2272,19 +2272,19 @@
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="28">
         <v>16</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>64</v>
@@ -2315,19 +2315,19 @@
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B19" s="28">
         <v>17</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="18" t="s">
         <v>65</v>
@@ -2358,19 +2358,19 @@
     </row>
     <row r="20" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B20" s="28">
         <v>18</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D20" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>70</v>
@@ -2382,7 +2382,7 @@
         <v>401</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J20" s="18" t="s">
         <v>83</v>
@@ -2403,19 +2403,19 @@
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="28">
         <v>19</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D21" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F21" s="18" t="s">
         <v>70</v>
@@ -2427,10 +2427,10 @@
         <v>401</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="K21" s="28">
         <v>10</v>
@@ -2448,19 +2448,19 @@
     </row>
     <row r="22" spans="1:14" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B22" s="28">
         <v>20</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D22" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>68</v>
@@ -2472,7 +2472,7 @@
         <v>200</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J22" s="18"/>
       <c r="K22" s="28">
@@ -2497,7 +2497,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>53</v>
@@ -2538,7 +2538,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>53</v>
@@ -2554,7 +2554,7 @@
         <v>401</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J24" s="22" t="s">
         <v>83</v>
@@ -2581,7 +2581,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>53</v>
@@ -2597,10 +2597,10 @@
         <v>401</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K25" s="31">
         <v>20</v>
@@ -2624,7 +2624,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>53</v>
@@ -2640,7 +2640,7 @@
         <v>200</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="31">
@@ -2665,7 +2665,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>39</v>
@@ -2708,7 +2708,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>39</v>
@@ -2726,7 +2726,7 @@
         <v>200</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="28">

--- a/documentation/Design/TestCases.xlsx
+++ b/documentation/Design/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Peter/Development/Python/Fishing/V2/1_Preparation/fishing/documentation/Design/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBE5D3D-4F13-484C-8576-813A0D522EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A106CE7-8AEB-8F4F-BEC7-5007826A95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="1100" windowWidth="23120" windowHeight="19300" activeTab="2" xr2:uid="{CB59B4E2-ABBB-9640-84E4-2E991D1E5FE4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="95">
   <si>
     <t>-</t>
   </si>
@@ -476,7 +476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -515,18 +515,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1520,22 +1514,20 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29" style="36" customWidth="1"/>
-    <col min="7" max="7" width="7" style="35" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="35" customWidth="1"/>
-    <col min="9" max="9" width="29.6640625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="29" style="36" customWidth="1"/>
+    <col min="3" max="5" width="9.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="29" style="34" customWidth="1"/>
+    <col min="7" max="7" width="7" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="34" customWidth="1"/>
+    <col min="10" max="10" width="29" style="34" customWidth="1"/>
     <col min="11" max="11" width="7.6640625" style="7" customWidth="1"/>
     <col min="12" max="12" width="8.6640625" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" bestFit="1" customWidth="1"/>
@@ -1544,1202 +1536,1190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="39" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="38" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="36" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="3" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <v>422</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>99</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="15" t="str">
+      <c r="M3" s="14" t="str">
         <f>_xlfn.IFNA(VLOOKUP(I3,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
+      <c r="G4" s="28">
+        <v>0</v>
+      </c>
+      <c r="H4" s="28">
         <v>401</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="26">
         <v>99</v>
       </c>
-      <c r="L4" s="28" t="s">
+      <c r="L4" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="19" t="str">
+      <c r="M4" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(I4,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <v>3</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
+      <c r="G5" s="28">
+        <v>0</v>
+      </c>
+      <c r="H5" s="28">
         <v>401</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="26">
         <v>99</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="L5" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M5" s="19" t="str">
+      <c r="M5" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(I5,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="26">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
+      <c r="G6" s="28">
+        <v>0</v>
+      </c>
+      <c r="H6" s="28">
         <v>401</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="26">
         <v>99</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="19" t="str">
+      <c r="M6" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(I6,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="29">
         <v>5</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="21" t="s">
+      <c r="D7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="31" t="s">
+      <c r="E7" s="29"/>
+      <c r="F7" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="32">
-        <v>0</v>
-      </c>
-      <c r="H7" s="32">
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
         <v>422</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="J7" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="29">
         <v>90</v>
       </c>
-      <c r="L7" s="31" t="s">
+      <c r="L7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="23" t="str">
+      <c r="M7" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L7,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N7" s="33" t="s">
+      <c r="N7" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="29">
         <v>6</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="32">
-        <v>0</v>
-      </c>
-      <c r="H8" s="32">
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
         <v>401</v>
       </c>
-      <c r="I8" s="41" t="s">
+      <c r="I8" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="J8" s="31" t="s">
+      <c r="J8" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="K8" s="31">
+      <c r="K8" s="29">
         <v>90</v>
       </c>
-      <c r="L8" s="31" t="s">
+      <c r="L8" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="23" t="str">
+      <c r="M8" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L8,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N8" s="33" t="s">
+      <c r="N8" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="29">
         <v>7</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="32">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
         <v>401</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="31">
+      <c r="K9" s="29">
         <v>90</v>
       </c>
-      <c r="L9" s="31" t="s">
+      <c r="L9" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M9" s="23" t="str">
+      <c r="M9" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L9,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N9" s="33" t="s">
+      <c r="N9" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="29">
         <v>8</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="32">
-        <v>0</v>
-      </c>
-      <c r="H10" s="32">
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
         <v>200</v>
       </c>
-      <c r="I10" s="41" t="s">
+      <c r="I10" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31">
+      <c r="J10" s="29"/>
+      <c r="K10" s="29">
         <v>90</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <v>10</v>
       </c>
-      <c r="M10" s="23" t="str">
+      <c r="M10" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L10,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="26">
         <v>9</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="17" t="s">
+      <c r="D11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="E11" s="26"/>
+      <c r="F11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27">
+      <c r="G11" s="28">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
         <v>422</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <v>80</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="L11" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L11,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N11" s="29" t="s">
+      <c r="N11" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="26">
         <v>10</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="26"/>
+      <c r="F12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
+      <c r="G12" s="28">
+        <v>0</v>
+      </c>
+      <c r="H12" s="28">
         <v>401</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <v>80</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="L12" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M12" s="19" t="str">
+      <c r="M12" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L12,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N12" s="29" t="s">
+      <c r="N12" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="26">
         <v>11</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
+      <c r="G13" s="28">
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
         <v>401</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>80</v>
       </c>
-      <c r="L13" s="28" t="s">
+      <c r="L13" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L13,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N13" s="29" t="s">
+      <c r="N13" s="27" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="26">
         <v>12</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
+      <c r="G14" s="28">
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
         <v>200</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="28">
+      <c r="J14" s="13"/>
+      <c r="K14" s="26">
         <v>80</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="26">
         <v>10</v>
       </c>
-      <c r="M14" s="19" t="str">
+      <c r="M14" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L14,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="35" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="29">
         <v>13</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="21" t="s">
+      <c r="D15" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="E15" s="29"/>
+      <c r="F15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="32">
-        <v>0</v>
-      </c>
-      <c r="H15" s="32">
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
         <v>422</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="31">
+      <c r="K15" s="29">
         <v>10</v>
       </c>
-      <c r="L15" s="31" t="s">
+      <c r="L15" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M15" s="23" t="str">
+      <c r="M15" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L15,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N15" s="33" t="s">
+      <c r="N15" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="29">
         <v>14</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E16" s="21" t="s">
+      <c r="D16" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="E16" s="29"/>
+      <c r="F16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="32">
-        <v>0</v>
-      </c>
-      <c r="H16" s="32">
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
         <v>422</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K16" s="31">
+      <c r="K16" s="29">
         <v>20</v>
       </c>
-      <c r="L16" s="31" t="s">
+      <c r="L16" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M16" s="23" t="str">
+      <c r="M16" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L16,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N16" s="33" t="s">
+      <c r="N16" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="19">
         <v>15</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="32">
-        <v>0</v>
-      </c>
-      <c r="H17" s="32">
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
         <v>200</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="21" t="s">
+      <c r="J17" s="20"/>
+      <c r="K17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="29">
         <v>10</v>
       </c>
-      <c r="M17" s="23" t="str">
+      <c r="M17" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L17,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="32" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="26">
         <v>16</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
+      <c r="G18" s="28">
+        <v>0</v>
+      </c>
+      <c r="H18" s="28">
         <v>422</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="28">
+      <c r="J18" s="13"/>
+      <c r="K18" s="26">
         <v>20</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M18" s="19" t="str">
+      <c r="M18" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L18,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="26">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-      <c r="H19" s="30">
+      <c r="G19" s="28">
+        <v>0</v>
+      </c>
+      <c r="H19" s="28">
         <v>422</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="28">
+      <c r="J19" s="13"/>
+      <c r="K19" s="26">
         <v>10</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M19" s="19" t="str">
+      <c r="M19" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L19,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N19" s="29" t="s">
+      <c r="N19" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <v>18</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="17" t="s">
+      <c r="E20" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="28">
         <v>5</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="28">
         <v>401</v>
       </c>
-      <c r="I20" s="18" t="s">
+      <c r="I20" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <v>10</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="26">
         <v>90</v>
       </c>
-      <c r="M20" s="19" t="str">
+      <c r="M20" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L20,State!$A$3:$B$8,2,FALSE),"")</f>
         <v xml:space="preserve">Blocked </v>
       </c>
-      <c r="N20" s="29" t="s">
+      <c r="N20" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="28">
+      <c r="B21" s="26">
         <v>19</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="28">
         <v>3</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="28">
         <v>401</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="26">
         <v>10</v>
       </c>
-      <c r="L21" s="28" t="s">
+      <c r="L21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="19" t="str">
+      <c r="M21" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L21,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N21" s="29" t="s">
+      <c r="N21" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="102" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="28">
+      <c r="B22" s="26">
         <v>20</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-      <c r="H22" s="30">
+      <c r="G22" s="28">
+        <v>0</v>
+      </c>
+      <c r="H22" s="28">
         <v>200</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="J22" s="18"/>
-      <c r="K22" s="28">
+      <c r="J22" s="16"/>
+      <c r="K22" s="26">
         <v>10</v>
       </c>
-      <c r="L22" s="28">
+      <c r="L22" s="26">
         <v>20</v>
       </c>
-      <c r="M22" s="19" t="str">
+      <c r="M22" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L22,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Active</v>
       </c>
-      <c r="N22" s="29" t="s">
+      <c r="N22" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="29">
         <v>21</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="29"/>
+      <c r="F23" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="32">
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+      <c r="H23" s="30">
         <v>422</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="31">
+      <c r="J23" s="20"/>
+      <c r="K23" s="29">
         <v>10</v>
       </c>
-      <c r="L23" s="31" t="s">
+      <c r="L23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M23" s="23" t="str">
+      <c r="M23" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L23,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N23" s="33" t="s">
+      <c r="N23" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="29">
         <v>22</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="29"/>
+      <c r="F24" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <v>5</v>
       </c>
-      <c r="H24" s="32">
+      <c r="H24" s="30">
         <v>401</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="K24" s="31">
+      <c r="K24" s="29">
         <v>20</v>
       </c>
-      <c r="L24" s="31">
+      <c r="L24" s="29">
         <v>90</v>
       </c>
-      <c r="M24" s="23" t="str">
+      <c r="M24" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L24,State!$A$3:$B$8,2,FALSE),"")</f>
         <v xml:space="preserve">Blocked </v>
       </c>
-      <c r="N24" s="33" t="s">
+      <c r="N24" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="29">
         <v>23</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22" t="s">
+      <c r="E25" s="29"/>
+      <c r="F25" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="30">
         <v>3</v>
       </c>
-      <c r="H25" s="32">
+      <c r="H25" s="30">
         <v>401</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="31">
+      <c r="K25" s="29">
         <v>20</v>
       </c>
-      <c r="L25" s="31" t="s">
+      <c r="L25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M25" s="23" t="str">
+      <c r="M25" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L25,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N25" s="33" t="s">
+      <c r="N25" s="31" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="31">
+      <c r="B26" s="29">
         <v>24</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22" t="s">
+      <c r="E26" s="29"/>
+      <c r="F26" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="32">
-        <v>0</v>
-      </c>
-      <c r="H26" s="32">
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+      <c r="H26" s="30">
         <v>200</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="22"/>
-      <c r="K26" s="31">
+      <c r="J26" s="20"/>
+      <c r="K26" s="29">
         <v>20</v>
       </c>
-      <c r="L26" s="31" t="s">
+      <c r="L26" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="M26" s="23" t="str">
+      <c r="M26" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L26,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="26">
         <v>25</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-      <c r="H27" s="30">
+      <c r="G27" s="28">
+        <v>0</v>
+      </c>
+      <c r="H27" s="28">
         <v>422</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="28">
+      <c r="J27" s="16"/>
+      <c r="K27" s="26">
         <v>10</v>
       </c>
-      <c r="L27" s="28" t="s">
+      <c r="L27" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="M27" s="19" t="str">
+      <c r="M27" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L27,State!$A$3:$B$8,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="26">
         <v>26</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-      <c r="H28" s="30">
+      <c r="G28" s="28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="28">
         <v>200</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="18"/>
-      <c r="K28" s="28">
+      <c r="J28" s="16"/>
+      <c r="K28" s="26">
         <v>20</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="26">
         <v>10</v>
       </c>
-      <c r="M28" s="19" t="str">
+      <c r="M28" s="17" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L28,State!$A$3:$B$8,2,FALSE),"")</f>
         <v>Inactive</v>
       </c>
-      <c r="N28" s="29" t="s">
+      <c r="N28" s="27" t="s">
         <v>49</v>
       </c>
     </row>
